--- a/homes.xlsx
+++ b/homes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>ObjectId</t>
   </si>
@@ -73,6 +73,9 @@
     <t>АВТОТЕХНИКА</t>
   </si>
   <si>
+    <t>АВТОФОРСАЖ</t>
+  </si>
+  <si>
     <t>АДАМАНТ</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>г Кстово, улица Сутырина</t>
   </si>
   <si>
+    <t>г Кострома</t>
+  </si>
+  <si>
     <t>г Рязань, улица Горького</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t>г Москва, район Левобережный, ш Ленинградское, вл. 69</t>
   </si>
   <si>
+    <t>г Новосибирск, улица Лескова, литера 0, корпус 0</t>
+  </si>
+  <si>
     <t>г Новосибирск, улица Лескова, д. 30, блок-секция б</t>
   </si>
   <si>
@@ -262,12 +271,12 @@
     <t>г Краснодар, Район п. Знаменский и п. Зеленопольский, литера 3</t>
   </si>
   <si>
+    <t>г Краснодар, Район п. Знаменский и п. Зеленопольский, литера 6</t>
+  </si>
+  <si>
     <t>г Краснодар, Район п. Знаменский и п. Зеленопольский, литера 8</t>
   </si>
   <si>
-    <t>г Краснодар, Район п. Знаменский и п. Зеленопольский, литера 6</t>
-  </si>
-  <si>
     <t>г Краснодар, Район п. Знаменский и п. Зеленопольский, литера 9</t>
   </si>
   <si>
@@ -289,81 +298,81 @@
     <t>г Омск, улица Маршала Жукова - Бульварная, д. 154, корпус 1</t>
   </si>
   <si>
+    <t>д Зверево, д. 44</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 111</t>
+  </si>
+  <si>
     <t>д Зверево, д. 71</t>
   </si>
   <si>
-    <t>д Зверево, д. 44</t>
+    <t>д Зверево, д. 77</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 88</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 93</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 66</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 90</t>
   </si>
   <si>
     <t>д Зверево, д. 129</t>
   </si>
   <si>
-    <t>д Зверево, д. 77</t>
+    <t>д Зверево, д. 13</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 63</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 131</t>
+  </si>
+  <si>
+    <t>д Зверево, д. Школа</t>
   </si>
   <si>
     <t>д Зверево, д. 98</t>
   </si>
   <si>
-    <t>д Зверево, д. 66</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 90</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 88</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 13</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 111</t>
-  </si>
-  <si>
     <t>д Зверево, д. 110</t>
   </si>
   <si>
-    <t>д Зверево, д. 93</t>
-  </si>
-  <si>
-    <t>д Зверево, д. Школа</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 131</t>
+    <t>д Зверево, д. 125</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 132</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 43</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 122</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 49</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 105</t>
   </si>
   <si>
     <t>д Зверево, д. 128</t>
   </si>
   <si>
-    <t>д Зверево, д. 125</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 132</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 43</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 63</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 49</t>
+    <t>д Зверево, д. 112</t>
   </si>
   <si>
     <t>д Зверево, д. 55</t>
   </si>
   <si>
-    <t>д Зверево, д. 105</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 112</t>
-  </si>
-  <si>
     <t>д Зверево, д. 78</t>
   </si>
   <si>
-    <t>д Зверево, д. 122</t>
-  </si>
-  <si>
     <t>д Зверево, д. 50</t>
   </si>
   <si>
@@ -373,19 +382,13 @@
     <t>д Зверево, д. 84</t>
   </si>
   <si>
-    <t>д Зверево, д. 86</t>
+    <t>д Зверево, д. 64</t>
+  </si>
+  <si>
+    <t>д Зверево, д. 119</t>
   </si>
   <si>
     <t>д Зверево, д. 40</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 119</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 64</t>
-  </si>
-  <si>
-    <t>д Зверево, д. 118</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>57.1519</v>
@@ -797,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>57.1519</v>
@@ -817,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>57.1519</v>
@@ -837,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>57.1519</v>
@@ -857,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>45.02</v>
@@ -877,7 +880,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>59.1985</v>
@@ -897,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>54.4377</v>
@@ -917,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>54.4377</v>
@@ -937,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>44.9864</v>
@@ -957,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>44.9862</v>
@@ -977,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>45.0325</v>
@@ -997,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>54.9028</v>
@@ -1017,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>54.9029</v>
@@ -1037,7 +1040,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>55.7523</v>
@@ -1057,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>60.1449</v>
@@ -1077,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>55.8277</v>
@@ -1097,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>55.8277</v>
@@ -1117,7 +1120,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>55.5974</v>
@@ -1137,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>55.5972</v>
@@ -1157,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>54.2536</v>
@@ -1177,7 +1180,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22">
         <v>54.2536</v>
@@ -1197,7 +1200,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>54.2536</v>
@@ -1217,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>57.7265</v>
@@ -1237,7 +1240,7 @@
         <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>56.1448</v>
@@ -1251,19 +1254,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>27542</v>
+        <v>49503</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26">
-        <v>54.6212</v>
+        <v>57.7458</v>
       </c>
       <c r="F26">
-        <v>39.7502</v>
+        <v>40.8732</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1271,19 +1274,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20524</v>
+        <v>27542</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>55.8367</v>
+        <v>54.6212</v>
       </c>
       <c r="F27">
-        <v>37.4918</v>
+        <v>39.7502</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1291,19 +1294,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>24093</v>
+        <v>20524</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28">
-        <v>52.9623</v>
+        <v>55.8367</v>
       </c>
       <c r="F28">
-        <v>36.049</v>
+        <v>37.4918</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1311,19 +1314,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27802</v>
+        <v>24093</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>54.8414</v>
+        <v>52.9623</v>
       </c>
       <c r="F29">
-        <v>83.1788</v>
+        <v>36.049</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1331,19 +1334,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>27798</v>
+        <v>27802</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30">
-        <v>54.8422</v>
+        <v>54.8414</v>
       </c>
       <c r="F30">
-        <v>83.1789</v>
+        <v>83.1788</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1351,19 +1354,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>27801</v>
+        <v>27798</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E31">
-        <v>54.8464</v>
+        <v>54.8422</v>
       </c>
       <c r="F31">
-        <v>83.1788</v>
+        <v>83.1789</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1371,19 +1374,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>27803</v>
+        <v>27801</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E32">
-        <v>54.8421</v>
+        <v>54.8464</v>
       </c>
       <c r="F32">
-        <v>83.179</v>
+        <v>83.1788</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1391,19 +1394,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27808</v>
+        <v>27803</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33">
-        <v>54.8414</v>
+        <v>54.8421</v>
       </c>
       <c r="F33">
-        <v>83.1788</v>
+        <v>83.179</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1411,19 +1414,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>23863</v>
+        <v>27808</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>54.8421</v>
+        <v>54.8414</v>
       </c>
       <c r="F34">
-        <v>83.1789</v>
+        <v>83.1788</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1431,19 +1434,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>23864</v>
+        <v>23863</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E35">
-        <v>54.8414</v>
+        <v>54.8421</v>
       </c>
       <c r="F35">
-        <v>83.1788</v>
+        <v>83.1789</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1451,19 +1454,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>23862</v>
+        <v>23864</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <v>54.8414</v>
       </c>
       <c r="F36">
-        <v>83.17610000000001</v>
+        <v>83.1788</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1471,19 +1474,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>27806</v>
+        <v>23862</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>54.8414</v>
       </c>
       <c r="F37">
-        <v>83.1788</v>
+        <v>83.17610000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1491,7 +1494,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>21720</v>
+        <v>27806</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1500,10 +1503,10 @@
         <v>61</v>
       </c>
       <c r="E38">
-        <v>55.8694</v>
+        <v>54.8414</v>
       </c>
       <c r="F38">
-        <v>37.4565</v>
+        <v>83.1788</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1511,19 +1514,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>45249</v>
+        <v>21720</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>55.8701</v>
+        <v>55.8694</v>
       </c>
       <c r="F39">
-        <v>37.4566</v>
+        <v>37.4565</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1531,19 +1534,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>33899</v>
+        <v>45249</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E40">
-        <v>55.0231</v>
+        <v>55.8701</v>
       </c>
       <c r="F40">
-        <v>82.9537</v>
+        <v>37.4566</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1551,19 +1554,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>33745</v>
+        <v>49511</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>53.3289</v>
+        <v>55.0229</v>
       </c>
       <c r="F41">
-        <v>83.6819</v>
+        <v>82.9538</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1571,19 +1574,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>44621</v>
+        <v>33899</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42">
-        <v>55.0263</v>
+        <v>55.0231</v>
       </c>
       <c r="F42">
-        <v>82.896</v>
+        <v>82.9537</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1591,19 +1594,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>47610</v>
+        <v>33745</v>
       </c>
       <c r="C43" t="s">
         <v>26</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43">
-        <v>55.0256</v>
+        <v>53.3289</v>
       </c>
       <c r="F43">
-        <v>82.9081</v>
+        <v>83.6819</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1611,19 +1614,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>46571</v>
+        <v>44621</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>55.0269</v>
+        <v>55.0263</v>
       </c>
       <c r="F44">
-        <v>82.8954</v>
+        <v>82.896</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1631,19 +1634,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>48595</v>
+        <v>47610</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E45">
-        <v>55.0274</v>
+        <v>55.0256</v>
       </c>
       <c r="F45">
-        <v>82.8969</v>
+        <v>82.9081</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1651,19 +1654,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>15888</v>
+        <v>46571</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>45.0914</v>
+        <v>55.0269</v>
       </c>
       <c r="F46">
-        <v>39.0461</v>
+        <v>82.8954</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1671,19 +1674,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>15886</v>
+        <v>48595</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E47">
-        <v>45.0986</v>
+        <v>55.0274</v>
       </c>
       <c r="F47">
-        <v>39.0622</v>
+        <v>82.8969</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1691,19 +1694,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>15885</v>
+        <v>15888</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48">
-        <v>45.0926</v>
+        <v>45.0914</v>
       </c>
       <c r="F48">
-        <v>39.046</v>
+        <v>39.0461</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1711,19 +1714,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>15890</v>
+        <v>15886</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E49">
-        <v>45.0926</v>
+        <v>45.0986</v>
       </c>
       <c r="F49">
-        <v>39.0465</v>
+        <v>39.0622</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1731,19 +1734,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>15891</v>
+        <v>15885</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E50">
-        <v>45.0927</v>
+        <v>45.0926</v>
       </c>
       <c r="F50">
-        <v>39.0473</v>
+        <v>39.046</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1751,16 +1754,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>15889</v>
+        <v>15890</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51">
-        <v>45.0915</v>
+        <v>45.0926</v>
       </c>
       <c r="F51">
         <v>39.0465</v>
@@ -1771,19 +1774,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>35324</v>
+        <v>15891</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52">
-        <v>43.5796</v>
+        <v>45.0927</v>
       </c>
       <c r="F52">
-        <v>39.7888</v>
+        <v>39.0473</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1791,19 +1794,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>41618</v>
+        <v>15889</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53">
-        <v>45.0587</v>
+        <v>45.0915</v>
       </c>
       <c r="F53">
-        <v>39.1119</v>
+        <v>39.0465</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1811,19 +1814,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>41616</v>
+        <v>35324</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E54">
-        <v>45.0592</v>
+        <v>43.5796</v>
       </c>
       <c r="F54">
-        <v>39.1153</v>
+        <v>39.7888</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1831,19 +1834,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>41613</v>
+        <v>41618</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55">
-        <v>45.0601</v>
+        <v>45.0587</v>
       </c>
       <c r="F55">
-        <v>39.1139</v>
+        <v>39.1119</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1851,16 +1854,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>41615</v>
+        <v>41616</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56">
-        <v>45.0602</v>
+        <v>45.0592</v>
       </c>
       <c r="F56">
         <v>39.1153</v>
@@ -1871,19 +1874,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>41612</v>
+        <v>41613</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57">
-        <v>45.0588</v>
+        <v>45.0601</v>
       </c>
       <c r="F57">
-        <v>39.1141</v>
+        <v>39.1139</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1891,19 +1894,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>45256</v>
+        <v>41615</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E58">
-        <v>54.6313</v>
+        <v>45.0602</v>
       </c>
       <c r="F58">
-        <v>39.7818</v>
+        <v>39.1153</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1911,19 +1914,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59">
-        <v>45.0605</v>
+        <v>45.0588</v>
       </c>
       <c r="F59">
-        <v>39.1146</v>
+        <v>39.1141</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1931,19 +1934,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>41619</v>
+        <v>45256</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60">
-        <v>45.0599</v>
+        <v>54.6313</v>
       </c>
       <c r="F60">
-        <v>39.1119</v>
+        <v>39.7818</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1951,19 +1954,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>41617</v>
+        <v>41614</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61">
-        <v>45.0585</v>
+        <v>45.0605</v>
       </c>
       <c r="F61">
-        <v>39.1147</v>
+        <v>39.1146</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1971,19 +1974,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62">
-        <v>45.0605</v>
+        <v>45.0585</v>
       </c>
       <c r="F62">
-        <v>39.1121</v>
+        <v>39.1147</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1991,19 +1994,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63">
-        <v>45.0605</v>
+        <v>45.0599</v>
       </c>
       <c r="F63">
-        <v>39.113</v>
+        <v>39.1119</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2011,19 +2014,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>45772</v>
+        <v>41620</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64">
-        <v>59.8931</v>
+        <v>45.0605</v>
       </c>
       <c r="F64">
-        <v>29.0963</v>
+        <v>39.1121</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2031,19 +2034,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>18136</v>
+        <v>41621</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65">
-        <v>53.2056</v>
+        <v>45.0605</v>
       </c>
       <c r="F65">
-        <v>50.2144</v>
+        <v>39.113</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2051,19 +2054,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>49316</v>
+        <v>45772</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66">
-        <v>54.9541</v>
+        <v>59.8931</v>
       </c>
       <c r="F66">
-        <v>20.4884</v>
+        <v>29.0963</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2071,19 +2074,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>37465</v>
+        <v>18136</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67">
-        <v>55.0558</v>
+        <v>53.2056</v>
       </c>
       <c r="F67">
-        <v>82.9143</v>
+        <v>50.2144</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2091,19 +2094,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>33525</v>
+        <v>49316</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68">
-        <v>54.9647</v>
+        <v>54.9541</v>
       </c>
       <c r="F68">
-        <v>73.39190000000001</v>
+        <v>20.4884</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2111,19 +2114,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>33165</v>
+        <v>37465</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69">
-        <v>55.4993</v>
+        <v>55.0558</v>
       </c>
       <c r="F69">
-        <v>36.9304</v>
+        <v>82.9143</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2131,19 +2134,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>33138</v>
+        <v>33525</v>
       </c>
       <c r="C70" t="s">
         <v>35</v>
       </c>
       <c r="D70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70">
-        <v>55.4861</v>
+        <v>54.9647</v>
       </c>
       <c r="F70">
-        <v>36.9205</v>
+        <v>73.39190000000001</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2151,19 +2154,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>33223</v>
+        <v>33138</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71">
-        <v>55.5043</v>
+        <v>55.4861</v>
       </c>
       <c r="F71">
-        <v>36.9345</v>
+        <v>36.9205</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2171,19 +2174,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>33171</v>
+        <v>33205</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72">
-        <v>55.5004</v>
+        <v>55.505</v>
       </c>
       <c r="F72">
-        <v>36.9321</v>
+        <v>36.9333</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2191,19 +2194,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33192</v>
+        <v>33165</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73">
-        <v>55.5058</v>
+        <v>55.4993</v>
       </c>
       <c r="F73">
-        <v>36.9326</v>
+        <v>36.9304</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2211,19 +2214,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>33160</v>
+        <v>33171</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74">
-        <v>55.4983</v>
+        <v>55.5004</v>
       </c>
       <c r="F74">
-        <v>36.929</v>
+        <v>36.9321</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2231,19 +2234,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>33184</v>
+        <v>33182</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75">
-        <v>55.5062</v>
+        <v>55.5058</v>
       </c>
       <c r="F75">
-        <v>36.9291</v>
+        <v>36.9335</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2251,19 +2254,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>33182</v>
+        <v>33187</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76">
-        <v>55.5058</v>
+        <v>55.5065</v>
       </c>
       <c r="F76">
-        <v>36.9335</v>
+        <v>36.9313</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2271,19 +2274,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>33107</v>
+        <v>33160</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E77">
-        <v>55.4994</v>
+        <v>55.4983</v>
       </c>
       <c r="F77">
-        <v>36.9258</v>
+        <v>36.929</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2291,19 +2294,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>33205</v>
+        <v>33184</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E78">
-        <v>55.505</v>
+        <v>55.5062</v>
       </c>
       <c r="F78">
-        <v>36.9333</v>
+        <v>36.9291</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2311,19 +2314,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>33204</v>
+        <v>33223</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79">
-        <v>55.5049</v>
+        <v>55.5043</v>
       </c>
       <c r="F79">
-        <v>36.9337</v>
+        <v>36.9345</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2331,19 +2334,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>33187</v>
+        <v>33107</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80">
-        <v>55.5065</v>
+        <v>55.4994</v>
       </c>
       <c r="F80">
-        <v>36.9313</v>
+        <v>36.9258</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2351,19 +2354,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>33236</v>
+        <v>33157</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E81">
-        <v>55.5037</v>
+        <v>55.4975</v>
       </c>
       <c r="F81">
-        <v>36.9314</v>
+        <v>36.9283</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2374,10 +2377,10 @@
         <v>33225</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82">
         <v>55.5042</v>
@@ -2391,19 +2394,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>33222</v>
+        <v>33236</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83">
-        <v>55.5045</v>
+        <v>55.5037</v>
       </c>
       <c r="F83">
-        <v>36.9338</v>
+        <v>36.9314</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2411,19 +2414,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>33219</v>
+        <v>33192</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84">
-        <v>55.5047</v>
+        <v>55.5058</v>
       </c>
       <c r="F84">
-        <v>36.9324</v>
+        <v>36.9326</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2431,19 +2434,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>33226</v>
+        <v>33204</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85">
-        <v>55.5041</v>
+        <v>55.5049</v>
       </c>
       <c r="F85">
-        <v>36.9353</v>
+        <v>36.9337</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2451,19 +2454,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>33137</v>
+        <v>33219</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E86">
-        <v>55.5014</v>
+        <v>55.5047</v>
       </c>
       <c r="F86">
-        <v>36.9303</v>
+        <v>36.9324</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2471,19 +2474,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>33157</v>
+        <v>33226</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E87">
-        <v>55.4975</v>
+        <v>55.5041</v>
       </c>
       <c r="F87">
-        <v>36.9283</v>
+        <v>36.9353</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2491,19 +2494,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>33143</v>
+        <v>33137</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E88">
-        <v>55.502</v>
+        <v>55.5014</v>
       </c>
       <c r="F88">
-        <v>36.9301</v>
+        <v>36.9303</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2511,19 +2514,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>33149</v>
+        <v>33216</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E89">
-        <v>55.502</v>
+        <v>55.5051</v>
       </c>
       <c r="F89">
-        <v>36.9301</v>
+        <v>36.9317</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2531,19 +2534,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>33199</v>
+        <v>33143</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E90">
-        <v>55.5051</v>
+        <v>55.502</v>
       </c>
       <c r="F90">
-        <v>36.9349</v>
+        <v>36.9301</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2551,19 +2554,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>33206</v>
+        <v>33199</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91">
         <v>55.5051</v>
       </c>
       <c r="F91">
-        <v>36.9329</v>
+        <v>36.9349</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2571,19 +2574,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>33172</v>
+        <v>33222</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E92">
-        <v>55.5006</v>
+        <v>55.5045</v>
       </c>
       <c r="F92">
-        <v>36.9323</v>
+        <v>36.9338</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2591,19 +2594,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>33216</v>
+        <v>33206</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93">
         <v>55.5051</v>
       </c>
       <c r="F93">
-        <v>36.9317</v>
+        <v>36.9329</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2611,19 +2614,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>33144</v>
+        <v>33149</v>
       </c>
       <c r="C94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E94">
-        <v>55.5027</v>
+        <v>55.502</v>
       </c>
       <c r="F94">
-        <v>36.9296</v>
+        <v>36.9301</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2631,19 +2634,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>33228</v>
+        <v>33172</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95">
-        <v>55.5035</v>
+        <v>55.5006</v>
       </c>
       <c r="F95">
-        <v>36.9352</v>
+        <v>36.9323</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2651,19 +2654,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>33178</v>
+        <v>33144</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E96">
-        <v>55.5055</v>
+        <v>55.5027</v>
       </c>
       <c r="F96">
-        <v>36.9347</v>
+        <v>36.9296</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2671,19 +2674,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>33180</v>
+        <v>33228</v>
       </c>
       <c r="C97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E97">
-        <v>55.5057</v>
+        <v>55.5035</v>
       </c>
       <c r="F97">
-        <v>36.934</v>
+        <v>36.9352</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2691,19 +2694,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>33134</v>
+        <v>33178</v>
       </c>
       <c r="C98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E98">
-        <v>55.5022</v>
+        <v>55.5055</v>
       </c>
       <c r="F98">
-        <v>36.9291</v>
+        <v>36.9347</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2711,19 +2714,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>33213</v>
+        <v>33158</v>
       </c>
       <c r="C99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E99">
-        <v>55.5055</v>
+        <v>55.4978</v>
       </c>
       <c r="F99">
-        <v>36.9306</v>
+        <v>36.9284</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2731,19 +2734,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>33158</v>
+        <v>33213</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E100">
-        <v>55.4978</v>
+        <v>55.5055</v>
       </c>
       <c r="F100">
-        <v>36.9284</v>
+        <v>36.9306</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2751,19 +2754,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>33212</v>
+        <v>33134</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E101">
-        <v>55.5056</v>
+        <v>55.5022</v>
       </c>
       <c r="F101">
-        <v>36.9301</v>
+        <v>36.9291</v>
       </c>
     </row>
   </sheetData>
